--- a/Web/coyni/resources/testdata-business.xlsx
+++ b/Web/coyni/resources/testdata-business.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_Web_2.5\Clone_Business_2.5_10_07_2023\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CoyniBusiness(2.5)\Coyni(24-07-2023)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A5B9A8-9CD0-4215-B37D-50F8DC192CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCAB871-53BC-4312-90DB-AEE1F506A10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="10" xr2:uid="{D88AD955-9F71-4527-9065-4D768AECD508}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{D88AD955-9F71-4527-9065-4D768AECD508}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="769">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2343,6 +2343,18 @@
   </si>
   <si>
     <t>Company W-9</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Success!</t>
+  </si>
+  <si>
+    <t>Your bulk download has successfully completed.</t>
+  </si>
+  <si>
+    <t>Selected file has been successfully deleted</t>
   </si>
 </sst>
 </file>
@@ -2966,29 +2978,29 @@
       <selection activeCell="J3" sqref="J3:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="9" width="63.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="9" width="63.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="33.88671875" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="18" max="18" width="31.88671875" customWidth="1"/>
+    <col min="19" max="19" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>464</v>
       </c>
@@ -3103,7 +3115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>465</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>466</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>466</v>
       </c>
@@ -3205,7 +3217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>466</v>
       </c>
@@ -3240,7 +3252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -3275,7 +3287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>466</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>466</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>464</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>466</v>
       </c>
@@ -3412,7 +3424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>466</v>
       </c>
@@ -3444,7 +3456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>466</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3505,7 +3517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -3543,7 +3555,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -3575,7 +3587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -3607,7 +3619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -3639,7 +3651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>467</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>468</v>
       </c>
@@ -3700,7 +3712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -3734,7 +3746,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -3766,7 +3778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -3795,7 +3807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -3824,7 +3836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -3952,7 +3964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -4036,26 +4048,26 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4114,7 +4126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>366</v>
       </c>
@@ -4172,59 +4184,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE6CA43-2B16-443A-9410-CFE3B0E8F9EB}">
   <dimension ref="A1:AZ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" customWidth="1"/>
-    <col min="11" max="12" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="49.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.5546875" customWidth="1"/>
+    <col min="11" max="12" width="32.88671875" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="39.42578125" customWidth="1"/>
-    <col min="16" max="17" width="28.7109375" customWidth="1"/>
-    <col min="18" max="18" width="34.140625" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="39.44140625" customWidth="1"/>
+    <col min="16" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="34.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="29.6640625" customWidth="1"/>
+    <col min="22" max="22" width="16.88671875" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" customWidth="1"/>
-    <col min="25" max="25" width="32.140625" customWidth="1"/>
-    <col min="26" max="26" width="23.140625" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" customWidth="1"/>
-    <col min="29" max="30" width="16.28515625" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" customWidth="1"/>
+    <col min="25" max="25" width="32.109375" customWidth="1"/>
+    <col min="26" max="26" width="23.109375" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" customWidth="1"/>
+    <col min="29" max="30" width="16.33203125" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" customWidth="1"/>
     <col min="32" max="32" width="17" customWidth="1"/>
-    <col min="33" max="33" width="26.7109375" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="26.6640625" customWidth="1"/>
+    <col min="34" max="34" width="19.109375" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" customWidth="1"/>
-    <col min="37" max="37" width="15.28515625" customWidth="1"/>
-    <col min="38" max="38" width="23.28515625" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" customWidth="1"/>
-    <col min="43" max="43" width="21.140625" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" customWidth="1"/>
-    <col min="46" max="46" width="19.7109375" customWidth="1"/>
-    <col min="47" max="47" width="24.42578125" customWidth="1"/>
-    <col min="48" max="48" width="17.42578125" customWidth="1"/>
-    <col min="49" max="49" width="46.7109375" customWidth="1"/>
-    <col min="50" max="50" width="26.28515625" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" customWidth="1"/>
+    <col min="36" max="36" width="17.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" customWidth="1"/>
+    <col min="38" max="38" width="23.33203125" customWidth="1"/>
+    <col min="39" max="39" width="16.88671875" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" customWidth="1"/>
+    <col min="43" max="43" width="21.109375" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="17.33203125" customWidth="1"/>
+    <col min="46" max="46" width="19.6640625" customWidth="1"/>
+    <col min="47" max="47" width="24.44140625" customWidth="1"/>
+    <col min="48" max="48" width="17.44140625" customWidth="1"/>
+    <col min="49" max="49" width="46.6640625" customWidth="1"/>
+    <col min="50" max="50" width="26.33203125" customWidth="1"/>
+    <col min="51" max="51" width="16.33203125" customWidth="1"/>
+    <col min="52" max="52" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>521</v>
       </c>
@@ -4524,7 +4536,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>554</v>
       </c>
@@ -4623,7 +4635,7 @@
       <c r="AL3" s="44"/>
       <c r="AM3" s="44"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>559</v>
       </c>
@@ -4718,7 +4730,7 @@
       <c r="AL4" s="44"/>
       <c r="AM4" s="44"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>559</v>
       </c>
@@ -4815,7 +4827,7 @@
       <c r="AL5" s="44"/>
       <c r="AM5" s="44"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>559</v>
       </c>
@@ -4912,7 +4924,7 @@
       <c r="AL6" s="44"/>
       <c r="AM6" s="44"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>559</v>
       </c>
@@ -5007,7 +5019,7 @@
       <c r="AL7" s="44"/>
       <c r="AM7" s="44"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>559</v>
       </c>
@@ -5104,7 +5116,7 @@
       <c r="AL8" s="44"/>
       <c r="AM8" s="44"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>559</v>
       </c>
@@ -5199,7 +5211,7 @@
       <c r="AL9" s="44"/>
       <c r="AM9" s="44"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>559</v>
       </c>
@@ -5296,7 +5308,7 @@
       <c r="AL10" s="44"/>
       <c r="AM10" s="44"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>559</v>
       </c>
@@ -5391,7 +5403,7 @@
       <c r="AL11" s="44"/>
       <c r="AM11" s="44"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>559</v>
       </c>
@@ -5488,7 +5500,7 @@
       <c r="AL12" s="44"/>
       <c r="AM12" s="44"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>559</v>
       </c>
@@ -5583,7 +5595,7 @@
       <c r="AL13" s="44"/>
       <c r="AM13" s="44"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>559</v>
       </c>
@@ -5680,7 +5692,7 @@
       <c r="AL14" s="44"/>
       <c r="AM14" s="44"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>559</v>
       </c>
@@ -5777,7 +5789,7 @@
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>559</v>
       </c>
@@ -5872,7 +5884,7 @@
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>559</v>
       </c>
@@ -5967,7 +5979,7 @@
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>559</v>
       </c>
@@ -6064,7 +6076,7 @@
       <c r="AL18" s="44"/>
       <c r="AM18" s="44"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>559</v>
       </c>
@@ -6161,7 +6173,7 @@
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>559</v>
       </c>
@@ -6258,7 +6270,7 @@
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
     </row>
-    <row r="21" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>604</v>
       </c>
@@ -6349,7 +6361,7 @@
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
     </row>
-    <row r="22" spans="1:39" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>612</v>
       </c>
@@ -6448,7 +6460,7 @@
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
     </row>
-    <row r="23" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>616</v>
       </c>
@@ -6517,7 +6529,7 @@
       <c r="AL23" s="47"/>
       <c r="AM23" s="44"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>619</v>
       </c>
@@ -6600,7 +6612,7 @@
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>621</v>
       </c>
@@ -6689,7 +6701,7 @@
       <c r="AL25" s="44"/>
       <c r="AM25" s="44"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>621</v>
       </c>
@@ -6778,7 +6790,7 @@
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>621</v>
       </c>
@@ -6867,7 +6879,7 @@
       <c r="AL27" s="44"/>
       <c r="AM27" s="44"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>621</v>
       </c>
@@ -6954,7 +6966,7 @@
       <c r="AL28" s="44"/>
       <c r="AM28" s="44"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>621</v>
       </c>
@@ -7043,7 +7055,7 @@
       <c r="AL29" s="44"/>
       <c r="AM29" s="44"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>621</v>
       </c>
@@ -7132,7 +7144,7 @@
       <c r="AL30" s="44"/>
       <c r="AM30" s="44"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>621</v>
       </c>
@@ -7221,7 +7233,7 @@
       <c r="AL31" s="44"/>
       <c r="AM31" s="44"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>621</v>
       </c>
@@ -7308,7 +7320,7 @@
       <c r="AL32" s="44"/>
       <c r="AM32" s="44"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>621</v>
       </c>
@@ -7397,7 +7409,7 @@
       <c r="AL33" s="44"/>
       <c r="AM33" s="44"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>621</v>
       </c>
@@ -7486,7 +7498,7 @@
       <c r="AL34" s="44"/>
       <c r="AM34" s="44"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>621</v>
       </c>
@@ -7573,7 +7585,7 @@
       <c r="AL35" s="44"/>
       <c r="AM35" s="44"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>621</v>
       </c>
@@ -7660,7 +7672,7 @@
       <c r="AL36" s="44"/>
       <c r="AM36" s="44"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>621</v>
       </c>
@@ -7747,7 +7759,7 @@
       <c r="AL37" s="44"/>
       <c r="AM37" s="44"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>621</v>
       </c>
@@ -7836,7 +7848,7 @@
       <c r="AL38" s="44"/>
       <c r="AM38" s="44"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>621</v>
       </c>
@@ -7925,7 +7937,7 @@
       <c r="AL39" s="44"/>
       <c r="AM39" s="44"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>621</v>
       </c>
@@ -8014,7 +8026,7 @@
       <c r="AL40" s="44"/>
       <c r="AM40" s="44"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>621</v>
       </c>
@@ -8101,7 +8113,7 @@
       <c r="AL41" s="44"/>
       <c r="AM41" s="44"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>621</v>
       </c>
@@ -8190,7 +8202,7 @@
       <c r="AL42" s="44"/>
       <c r="AM42" s="44"/>
     </row>
-    <row r="43" spans="1:42" ht="225" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>647</v>
       </c>
@@ -8277,7 +8289,7 @@
       <c r="AL43" s="44"/>
       <c r="AM43" s="44"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>650</v>
       </c>
@@ -8364,7 +8376,7 @@
       <c r="AL44" s="44"/>
       <c r="AM44" s="44"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>651</v>
       </c>
@@ -8459,7 +8471,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>651</v>
       </c>
@@ -8540,7 +8552,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>651</v>
       </c>
@@ -8621,7 +8633,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>651</v>
       </c>
@@ -8702,7 +8714,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>651</v>
       </c>
@@ -8783,7 +8795,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>651</v>
       </c>
@@ -8862,7 +8874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>651</v>
       </c>
@@ -8943,7 +8955,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>651</v>
       </c>
@@ -9024,7 +9036,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>651</v>
       </c>
@@ -9105,7 +9117,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>651</v>
       </c>
@@ -9186,7 +9198,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>651</v>
       </c>
@@ -9264,7 +9276,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>651</v>
       </c>
@@ -9342,7 +9354,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>651</v>
       </c>
@@ -9420,7 +9432,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>651</v>
       </c>
@@ -9498,7 +9510,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>651</v>
       </c>
@@ -9577,7 +9589,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>651</v>
       </c>
@@ -9655,7 +9667,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>651</v>
       </c>
@@ -9733,7 +9745,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>651</v>
       </c>
@@ -9811,7 +9823,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>651</v>
       </c>
@@ -9890,7 +9902,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="210" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>713</v>
       </c>
@@ -9962,7 +9974,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:49" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" ht="78" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>719</v>
       </c>
@@ -10061,7 +10073,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>728</v>
       </c>
@@ -10100,7 +10112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:49" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>731</v>
       </c>
@@ -10145,7 +10157,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>734</v>
       </c>
@@ -10187,7 +10199,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>736</v>
       </c>
@@ -10229,7 +10241,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>738</v>
       </c>
@@ -10271,7 +10283,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>740</v>
       </c>
@@ -10314,7 +10326,7 @@
       </c>
       <c r="P71" s="33"/>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>742</v>
       </c>
@@ -10360,7 +10372,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>744</v>
       </c>
@@ -10405,7 +10417,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>746</v>
       </c>
@@ -10450,7 +10462,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>749</v>
       </c>
@@ -10498,7 +10510,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>752</v>
       </c>
@@ -10596,32 +10608,32 @@
       <selection activeCell="I2" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" customWidth="1"/>
-    <col min="7" max="7" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.44140625" customWidth="1"/>
+    <col min="7" max="7" width="61.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="18" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10692,7 +10704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -10737,7 +10749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -10767,7 +10779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -10800,7 +10812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -10833,7 +10845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -10866,7 +10878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -10899,7 +10911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -10932,7 +10944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -10971,7 +10983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -11007,7 +11019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -11047,7 +11059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -11087,7 +11099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -11127,7 +11139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -11160,7 +11172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -11193,7 +11205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -11226,7 +11238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -11259,7 +11271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -11298,7 +11310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -11337,7 +11349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -11376,7 +11388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -11421,7 +11433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -11463,7 +11475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -11505,7 +11517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -11547,7 +11559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>175</v>
       </c>
@@ -11570,7 +11582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>178</v>
       </c>
@@ -11599,7 +11611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -11650,29 +11662,29 @@
       <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="55.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="79.85546875" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="79.88671875" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11731,7 +11743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -11781,7 +11793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -11807,7 +11819,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -11836,7 +11848,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -11865,7 +11877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -11903,7 +11915,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -11932,7 +11944,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -11974,7 +11986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -12015,7 +12027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>212</v>
       </c>
@@ -12059,7 +12071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -12103,7 +12115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -12147,7 +12159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>212</v>
       </c>
@@ -12191,7 +12203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -12235,7 +12247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -12279,7 +12291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -12323,7 +12335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -12367,7 +12379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -12411,7 +12423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>242</v>
       </c>
@@ -12465,44 +12477,44 @@
       <selection activeCell="H2" sqref="H2:H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
+    <col min="13" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="18" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" customWidth="1"/>
+    <col min="20" max="20" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" customWidth="1"/>
+    <col min="24" max="24" width="16.88671875" customWidth="1"/>
+    <col min="25" max="25" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" customWidth="1"/>
-    <col min="30" max="30" width="23.5703125" customWidth="1"/>
-    <col min="31" max="31" width="23.28515625" customWidth="1"/>
-    <col min="33" max="33" width="31.5703125" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" customWidth="1"/>
+    <col min="28" max="28" width="26.88671875" customWidth="1"/>
+    <col min="30" max="30" width="23.5546875" customWidth="1"/>
+    <col min="31" max="31" width="23.33203125" customWidth="1"/>
+    <col min="33" max="33" width="31.5546875" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" customWidth="1"/>
+    <col min="35" max="35" width="28.44140625" customWidth="1"/>
     <col min="36" max="36" width="33" customWidth="1"/>
-    <col min="37" max="37" width="35.42578125" customWidth="1"/>
-    <col min="38" max="38" width="31.28515625" customWidth="1"/>
-    <col min="39" max="39" width="43.7109375" customWidth="1"/>
-    <col min="40" max="40" width="36.140625" customWidth="1"/>
-    <col min="41" max="41" width="43.85546875" customWidth="1"/>
+    <col min="37" max="37" width="35.44140625" customWidth="1"/>
+    <col min="38" max="38" width="31.33203125" customWidth="1"/>
+    <col min="39" max="39" width="43.6640625" customWidth="1"/>
+    <col min="40" max="40" width="36.109375" customWidth="1"/>
+    <col min="41" max="41" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12627,7 +12639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -12704,7 +12716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -12781,7 +12793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -12858,7 +12870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -12935,7 +12947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -13006,7 +13018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>285</v>
       </c>
@@ -13056,7 +13068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>285</v>
       </c>
@@ -13115,7 +13127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>285</v>
       </c>
@@ -13168,7 +13180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -13221,7 +13233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -13280,7 +13292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -13339,7 +13351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -13398,7 +13410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -13451,7 +13463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>285</v>
       </c>
@@ -13504,7 +13516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>305</v>
       </c>
@@ -13554,7 +13566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>305</v>
       </c>
@@ -13601,7 +13613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>305</v>
       </c>
@@ -13648,7 +13660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>305</v>
       </c>
@@ -13695,7 +13707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>305</v>
       </c>
@@ -13742,7 +13754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -13795,7 +13807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>311</v>
       </c>
@@ -13848,7 +13860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -13901,7 +13913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -13951,7 +13963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -14004,7 +14016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>321</v>
       </c>
@@ -14057,7 +14069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>321</v>
       </c>
@@ -14110,7 +14122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -14163,7 +14175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>321</v>
       </c>
@@ -14216,7 +14228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>321</v>
       </c>
@@ -14269,7 +14281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -14322,7 +14334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>330</v>
       </c>
@@ -14384,7 +14396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>330</v>
       </c>
@@ -14446,7 +14458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>336</v>
       </c>
@@ -14511,7 +14523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>336</v>
       </c>
@@ -14573,7 +14585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -14635,7 +14647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -14697,7 +14709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>336</v>
       </c>
@@ -14759,7 +14771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>337</v>
       </c>
@@ -14797,7 +14809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -14835,7 +14847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -14882,7 +14894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>348</v>
       </c>
@@ -14935,7 +14947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>348</v>
       </c>
@@ -14988,7 +15000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>354</v>
       </c>
@@ -15032,7 +15044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>357</v>
       </c>
@@ -15073,7 +15085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>359</v>
       </c>
@@ -15111,7 +15123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>360</v>
       </c>
@@ -15149,7 +15161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>481</v>
       </c>
@@ -15240,27 +15252,27 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="12" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" customWidth="1"/>
-    <col min="21" max="21" width="32.42578125" customWidth="1"/>
+    <col min="16" max="18" width="17.44140625" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
+    <col min="20" max="20" width="20.44140625" customWidth="1"/>
+    <col min="21" max="21" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15328,7 +15340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>380</v>
       </c>
@@ -15393,7 +15405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -15450,28 +15462,28 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="29"/>
-    <col min="17" max="17" width="21.5703125" style="29" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="29"/>
+    <col min="1" max="1" width="36.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="29"/>
+    <col min="17" max="17" width="21.5546875" style="29" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -15530,7 +15542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>396</v>
       </c>
@@ -15589,7 +15601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>402</v>
       </c>
@@ -15657,27 +15669,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E290CE25-EBF1-4722-9059-4C2E3381FD8C}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="11" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="40.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15717,8 +15730,14 @@
       <c r="M1" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>406</v>
       </c>
@@ -15729,10 +15748,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>461</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>471</v>
+        <v>214</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>25</v>
@@ -15756,7 +15775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -15767,10 +15786,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>461</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>471</v>
+        <v>214</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>25</v>
@@ -15793,8 +15812,14 @@
       <c r="L3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>766</v>
+      </c>
+      <c r="O3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>409</v>
       </c>
@@ -15805,10 +15830,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>461</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>471</v>
+        <v>214</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>25</v>
@@ -15831,13 +15856,21 @@
       <c r="L4" t="s">
         <v>28</v>
       </c>
+      <c r="N4" t="s">
+        <v>766</v>
+      </c>
+      <c r="O4" t="s">
+        <v>768</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Merch@123" xr:uid="{A0EFEF3E-C65C-4CDA-B1E7-4608FB9ACBAD}"/>
-    <hyperlink ref="E3" r:id="rId2" display="Merch@123" xr:uid="{40603C7F-55F6-414C-9D8C-D6BE999D8138}"/>
-    <hyperlink ref="E4" r:id="rId3" display="Merch@123" xr:uid="{E894FCCC-B1A0-4813-AACD-201249B4A469}"/>
-    <hyperlink ref="D2:D4" r:id="rId4" display="prajwal126@gmail.com" xr:uid="{17FFF4ED-28C3-4C1B-B6BB-3565A3B88608}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5F78D95B-EF1B-4BF5-827F-BA6BB71F410D}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{08F9C298-052B-4374-9E7F-B37AF83EC8D1}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{FE423A7E-0B89-4E6F-B48E-352B42E4FBCF}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{5A5CE3D1-7953-43B3-95A2-32CF595362DA}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{0F051DB4-BEAF-45C2-B6B0-CF55DAF14480}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{50B3D761-DA79-4D8E-B3CE-2CF4652B6A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15851,30 +15884,30 @@
       <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" customWidth="1"/>
-    <col min="16" max="16" width="47.5703125" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" customWidth="1"/>
+    <col min="16" max="16" width="47.5546875" customWidth="1"/>
+    <col min="17" max="17" width="28.5546875" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15939,7 +15972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>415</v>
       </c>
@@ -15995,7 +16028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>415</v>
       </c>
@@ -16042,7 +16075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>421</v>
       </c>
@@ -16098,7 +16131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>421</v>
       </c>
@@ -16152,7 +16185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>421</v>
       </c>
@@ -16204,7 +16237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>421</v>
       </c>
@@ -16258,7 +16291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>421</v>
       </c>
@@ -16310,7 +16343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>421</v>
       </c>
@@ -16364,7 +16397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>421</v>
       </c>
@@ -16418,7 +16451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>435</v>
       </c>
@@ -16474,7 +16507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>435</v>
       </c>
@@ -16566,35 +16599,35 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="31.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="31.109375" customWidth="1"/>
+    <col min="15" max="15" width="31.44140625" customWidth="1"/>
     <col min="16" max="16" width="32" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="25.140625" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" customWidth="1"/>
+    <col min="22" max="22" width="25.109375" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16671,7 +16704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>442</v>
       </c>
@@ -16709,7 +16742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>443</v>
       </c>
@@ -16747,7 +16780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>445</v>
       </c>
@@ -16782,7 +16815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -16824,7 +16857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>447</v>
       </c>
@@ -16868,7 +16901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>452</v>
       </c>
@@ -16903,7 +16936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>454</v>
       </c>
@@ -16938,7 +16971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>475</v>
       </c>
@@ -16976,7 +17009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>476</v>
       </c>
@@ -17018,7 +17051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>457</v>
       </c>
@@ -17059,7 +17092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>459</v>
       </c>

--- a/Web/coyni/resources/testdata-business.xlsx
+++ b/Web/coyni/resources/testdata-business.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\24Business\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\26Business\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A7F84-6124-42C4-B1D8-68256F67B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF5A90-4C08-40D3-9552-4A3C78505102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{D88AD955-9F71-4527-9065-4D768AECD508}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{D88AD955-9F71-4527-9065-4D768AECD508}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -2998,7 +2998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3156,27 +3156,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3210,9 +3208,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4606,7 +4604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE8BFB2-E0A5-4F81-9B7A-8129F3A75CA2}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4746,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE6CA43-2B16-443A-9410-CFE3B0E8F9EB}">
   <dimension ref="A1:AZ76"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10536,7 +10534,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:49" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>684</v>
       </c>
@@ -11167,7 +11165,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11210,13 +11208,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>7</v>
@@ -11260,7 +11258,7 @@
       <c r="T1" s="74" t="s">
         <v>768</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="V1" s="42" t="s">
@@ -11280,1189 +11278,1182 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>770</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="79" t="s">
+      <c r="F2" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="75" t="s">
         <v>772</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="76" t="s">
         <v>773</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="80" t="s">
         <v>774</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="75" t="s">
         <v>775</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="75" t="s">
         <v>473</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="75" t="s">
         <v>646</v>
       </c>
-      <c r="Q2" s="76">
+      <c r="Q2" s="75">
         <v>12414</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="82"/>
+      <c r="T2" s="75"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>769</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>770</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="75" t="s">
         <v>776</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="76" t="s">
         <v>777</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="80" t="s">
         <v>778</v>
       </c>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="75" t="s">
         <v>779</v>
       </c>
-      <c r="O3" s="76" t="s">
+      <c r="O3" s="75" t="s">
         <v>780</v>
       </c>
-      <c r="P3" s="76" t="s">
+      <c r="P3" s="75" t="s">
         <v>781</v>
       </c>
-      <c r="Q3" s="76">
+      <c r="Q3" s="75">
         <v>54321</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="S3" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="82"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>769</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>770</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="79" t="s">
+      <c r="F4" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="75" t="s">
         <v>782</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="76" t="s">
         <v>783</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="80" t="s">
         <v>784</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>785</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>786</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="75" t="s">
         <v>787</v>
       </c>
-      <c r="Q4" s="76">
+      <c r="Q4" s="75">
         <v>87655</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T4" s="76"/>
-      <c r="U4" s="82"/>
+      <c r="T4" s="75"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>769</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>770</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="79" t="s">
+      <c r="F5" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="75" t="s">
         <v>788</v>
       </c>
-      <c r="L5" s="77" t="s">
+      <c r="L5" s="76" t="s">
         <v>789</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="80" t="s">
         <v>774</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="75" t="s">
         <v>775</v>
       </c>
-      <c r="O5" s="76" t="s">
+      <c r="O5" s="75" t="s">
         <v>473</v>
       </c>
-      <c r="P5" s="76" t="s">
+      <c r="P5" s="75" t="s">
         <v>646</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="Q5" s="75">
         <v>12414</v>
       </c>
-      <c r="R5" s="76" t="s">
+      <c r="R5" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S5" s="76" t="s">
+      <c r="S5" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T5" s="76"/>
-      <c r="U5" s="82"/>
+      <c r="T5" s="75"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="75" t="s">
         <v>790</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>791</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="79" t="s">
+      <c r="F6" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="75" t="s">
         <v>792</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="81" t="s">
+      <c r="L6" s="76"/>
+      <c r="M6" s="80" t="s">
         <v>793</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="75" t="s">
         <v>794</v>
       </c>
-      <c r="O6" s="76" t="s">
+      <c r="O6" s="75" t="s">
         <v>795</v>
       </c>
-      <c r="P6" s="76" t="s">
+      <c r="P6" s="75" t="s">
         <v>796</v>
       </c>
-      <c r="Q6" s="76">
+      <c r="Q6" s="75">
         <v>45456</v>
       </c>
-      <c r="R6" s="76" t="s">
+      <c r="R6" s="75" t="s">
         <v>622</v>
       </c>
-      <c r="S6" s="76" t="s">
+      <c r="S6" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T6" s="77" t="s">
+      <c r="T6" s="76" t="s">
         <v>797</v>
       </c>
-      <c r="U6" s="82"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>798</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>799</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="79" t="s">
+      <c r="F7" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="77" t="s">
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="76" t="s">
         <v>797</v>
       </c>
-      <c r="U7" s="82"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>800</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>801</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="79" t="s">
+      <c r="F8" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="75" t="s">
         <v>802</v>
       </c>
-      <c r="L8" s="76" t="s">
+      <c r="L8" s="75" t="s">
         <v>803</v>
       </c>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="75" t="s">
         <v>804</v>
       </c>
-      <c r="N8" s="76" t="s">
+      <c r="N8" s="75" t="s">
         <v>805</v>
       </c>
-      <c r="O8" s="76" t="s">
+      <c r="O8" s="75" t="s">
         <v>805</v>
       </c>
-      <c r="P8" s="76" t="s">
+      <c r="P8" s="75" t="s">
         <v>806</v>
       </c>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76" t="s">
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75" t="s">
         <v>807</v>
       </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="82"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>809</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="79" t="s">
+      <c r="F9" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N9" s="76" t="s">
+      <c r="N9" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O9" s="76" t="s">
+      <c r="O9" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P9" s="76" t="s">
+      <c r="P9" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q9" s="77" t="s">
+      <c r="Q9" s="76" t="s">
         <v>815</v>
       </c>
-      <c r="R9" s="76" t="s">
+      <c r="R9" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="87" t="s">
+      <c r="T9" s="75"/>
+      <c r="U9" s="85" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>816</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="79" t="s">
+      <c r="F10" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="86">
         <v>44641</v>
       </c>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O10" s="76" t="s">
+      <c r="O10" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q10" s="77" t="s">
+      <c r="Q10" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R10" s="76" t="s">
+      <c r="R10" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S10" s="76" t="s">
+      <c r="S10" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="89" t="s">
+      <c r="T10" s="75"/>
+      <c r="U10" s="87" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>819</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="79" t="s">
+      <c r="F11" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="M11" s="75" t="s">
         <v>820</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="N11" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O11" s="76" t="s">
+      <c r="O11" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P11" s="76" t="s">
+      <c r="P11" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R11" s="76" t="s">
+      <c r="R11" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S11" s="76" t="s">
+      <c r="S11" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="89" t="s">
+      <c r="T11" s="75"/>
+      <c r="U11" s="87" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>821</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="79" t="s">
+      <c r="F12" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L12" s="90" t="s">
+      <c r="L12" s="88" t="s">
         <v>822</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N12" s="76" t="s">
+      <c r="N12" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O12" s="76" t="s">
+      <c r="O12" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P12" s="76" t="s">
+      <c r="P12" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q12" s="77" t="s">
+      <c r="Q12" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R12" s="76" t="s">
+      <c r="R12" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="S12" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T12" s="76"/>
-      <c r="U12" s="91" t="s">
+      <c r="T12" s="75"/>
+      <c r="U12" s="89" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>824</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="76" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="79" t="s">
+      <c r="F13" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J13" s="79" t="s">
+      <c r="J13" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="85" t="s">
+      <c r="K13" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="M13" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N13" s="92" t="s">
+      <c r="N13" s="90" t="s">
         <v>825</v>
       </c>
-      <c r="O13" s="76" t="s">
+      <c r="O13" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P13" s="76" t="s">
+      <c r="P13" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q13" s="77" t="s">
+      <c r="Q13" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R13" s="76" t="s">
+      <c r="R13" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S13" s="76" t="s">
+      <c r="S13" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T13" s="76"/>
-      <c r="U13" s="91"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="89"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>826</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="79" t="s">
+      <c r="F14" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J14" s="79" t="s">
+      <c r="J14" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77" t="s">
+      <c r="K14" s="75"/>
+      <c r="L14" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="N14" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O14" s="76" t="s">
+      <c r="O14" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P14" s="76" t="s">
+      <c r="P14" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q14" s="77" t="s">
+      <c r="Q14" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R14" s="76" t="s">
+      <c r="R14" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S14" s="76" t="s">
+      <c r="S14" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T14" s="76"/>
-      <c r="U14" s="87" t="s">
+      <c r="T14" s="75"/>
+      <c r="U14" s="85" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>828</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="79" t="s">
+      <c r="F15" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="86" t="s">
+      <c r="L15" s="75"/>
+      <c r="M15" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O15" s="76" t="s">
+      <c r="O15" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P15" s="76" t="s">
+      <c r="P15" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q15" s="77" t="s">
+      <c r="Q15" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R15" s="76" t="s">
+      <c r="R15" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S15" s="76" t="s">
+      <c r="S15" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T15" s="76"/>
-      <c r="U15" s="91" t="s">
+      <c r="T15" s="75"/>
+      <c r="U15" s="89" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>830</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="79" t="s">
+      <c r="F16" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O16" s="76" t="s">
+      <c r="O16" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P16" s="76" t="s">
+      <c r="P16" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q16" s="77" t="s">
+      <c r="Q16" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R16" s="76" t="s">
+      <c r="R16" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S16" s="76" t="s">
+      <c r="S16" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T16" s="76"/>
-      <c r="U16" s="91" t="s">
+      <c r="T16" s="75"/>
+      <c r="U16" s="89" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>832</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="79" t="s">
+      <c r="F17" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76" t="s">
+      <c r="M17" s="75"/>
+      <c r="N17" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O17" s="76" t="s">
+      <c r="O17" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P17" s="76" t="s">
+      <c r="P17" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q17" s="77" t="s">
+      <c r="Q17" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76" t="s">
+      <c r="R17" s="75"/>
+      <c r="S17" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T17" s="76"/>
-      <c r="U17" s="87" t="s">
+      <c r="T17" s="75"/>
+      <c r="U17" s="85" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>833</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="79" t="s">
+      <c r="F18" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L18" s="77" t="s">
+      <c r="L18" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M18" s="88">
+      <c r="M18" s="86">
         <v>45010</v>
       </c>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76" t="s">
+      <c r="N18" s="75"/>
+      <c r="O18" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P18" s="76" t="s">
+      <c r="P18" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q18" s="77" t="s">
+      <c r="Q18" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76" t="s">
+      <c r="R18" s="75"/>
+      <c r="S18" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T18" s="76"/>
-      <c r="U18" s="87" t="s">
+      <c r="T18" s="75"/>
+      <c r="U18" s="85" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>835</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="79" t="s">
+      <c r="F19" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J19" s="79" t="s">
+      <c r="J19" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="85" t="s">
+      <c r="K19" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L19" s="77" t="s">
+      <c r="L19" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M19" s="86" t="s">
+      <c r="M19" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O19" s="76" t="s">
+      <c r="O19" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77" t="s">
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76" t="s">
         <v>817</v>
       </c>
-      <c r="R19" s="76" t="s">
+      <c r="R19" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S19" s="76" t="s">
+      <c r="S19" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T19" s="76"/>
-      <c r="U19" s="87" t="s">
+      <c r="T19" s="75"/>
+      <c r="U19" s="85" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="75" t="s">
         <v>808</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>836</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="76" t="s">
         <v>554</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="79" t="s">
+      <c r="F20" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="85" t="s">
+      <c r="K20" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="L20" s="77" t="s">
+      <c r="L20" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="N20" s="76" t="s">
+      <c r="N20" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="O20" s="76" t="s">
+      <c r="O20" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="P20" s="76" t="s">
+      <c r="P20" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76" t="s">
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="S20" s="76" t="s">
+      <c r="S20" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="T20" s="76"/>
-      <c r="U20" s="87" t="s">
+      <c r="T20" s="75"/>
+      <c r="U20" s="85" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="101" t="s">
         <v>879</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="79" t="s">
+      <c r="F21" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="I21" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="78" t="s">
         <v>25</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="V21" s="105" t="s">
+      <c r="V21" s="103" t="s">
         <v>889</v>
       </c>
-      <c r="W21" s="106" t="s">
+      <c r="W21" s="104" t="s">
         <v>890</v>
       </c>
-      <c r="X21" s="107" t="s">
+      <c r="X21" s="105" t="s">
         <v>891</v>
       </c>
     </row>
@@ -12470,31 +12461,31 @@
       <c r="A22" t="s">
         <v>885</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="101" t="s">
         <v>886</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F22" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="79" t="s">
+      <c r="F22" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="79" t="s">
         <v>771</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="78" t="s">
         <v>25</v>
       </c>
       <c r="Y22" t="s">
@@ -12549,7 +12540,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12583,13 +12574,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="65" t="s">
         <v>7</v>
@@ -12653,7 +12644,7 @@
       <c r="J2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="92" t="s">
         <v>722</v>
       </c>
       <c r="L2" s="67"/>
@@ -12693,7 +12684,7 @@
       <c r="J3" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="92" t="s">
         <v>722</v>
       </c>
       <c r="L3" s="67" t="s">
@@ -12741,7 +12732,7 @@
       <c r="J4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="92" t="s">
         <v>722</v>
       </c>
       <c r="L4" s="67" t="s">
@@ -12789,7 +12780,7 @@
       <c r="J5" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="94" t="s">
+      <c r="K5" s="92" t="s">
         <v>722</v>
       </c>
       <c r="L5" s="67" t="s">
@@ -12837,7 +12828,7 @@
       <c r="J6" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="94" t="s">
+      <c r="K6" s="92" t="s">
         <v>722</v>
       </c>
       <c r="L6" s="67" t="s">
@@ -12885,7 +12876,7 @@
       <c r="J7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="92" t="s">
         <v>722</v>
       </c>
       <c r="L7" s="67" t="s">
@@ -12933,7 +12924,7 @@
       <c r="J8" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="92" t="s">
         <v>722</v>
       </c>
       <c r="L8" s="67" t="s">
@@ -12979,10 +12970,10 @@
       <c r="J9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="94" t="s">
+      <c r="K9" s="92" t="s">
         <v>722</v>
       </c>
-      <c r="L9" s="95" t="s">
+      <c r="L9" s="93" t="s">
         <v>544</v>
       </c>
       <c r="M9" s="67"/>
@@ -13027,10 +13018,10 @@
       <c r="J10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="94" t="s">
+      <c r="K10" s="92" t="s">
         <v>722</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="93" t="s">
         <v>544</v>
       </c>
       <c r="M10" s="67"/>
@@ -13075,10 +13066,10 @@
       <c r="J11" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="94" t="s">
+      <c r="K11" s="92" t="s">
         <v>722</v>
       </c>
-      <c r="L11" s="93" t="s">
+      <c r="L11" s="91" t="s">
         <v>540</v>
       </c>
       <c r="M11" s="67"/>
@@ -13121,10 +13112,10 @@
       <c r="J12" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="K12" s="92" t="s">
         <v>722</v>
       </c>
-      <c r="L12" s="96" t="s">
+      <c r="L12" s="94" t="s">
         <v>544</v>
       </c>
       <c r="M12" s="67"/>
@@ -13166,7 +13157,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13196,13 +13187,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="65" t="s">
         <v>7</v>
@@ -13245,19 +13236,19 @@
       <c r="G2" s="70" t="s">
         <v>489</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="96" t="s">
         <v>771</v>
       </c>
       <c r="J2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="97" t="s">
         <v>859</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="98" t="s">
         <v>860</v>
       </c>
     </row>
@@ -13274,8 +13265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24E2C50-F013-459C-8A58-1839E2CEB1E4}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13308,13 +13299,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="65" t="s">
         <v>7</v>
@@ -13378,7 +13369,7 @@
       <c r="K2" s="72"/>
       <c r="L2" s="70"/>
       <c r="M2" s="67"/>
-      <c r="N2" s="94" t="s">
+      <c r="N2" s="92" t="s">
         <v>867</v>
       </c>
       <c r="O2" s="71"/>
@@ -13416,7 +13407,7 @@
       </c>
       <c r="K3" s="67"/>
       <c r="L3" s="67"/>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="99" t="s">
         <v>870</v>
       </c>
       <c r="N3" s="67"/>
@@ -13460,14 +13451,14 @@
         <v>874</v>
       </c>
       <c r="M4" s="67"/>
-      <c r="N4" s="94"/>
+      <c r="N4" s="92"/>
       <c r="O4" s="71"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>875</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="100" t="s">
         <v>876</v>
       </c>
       <c r="C5" s="68" t="s">
